--- a/sources/Guarani_Paraguayan_data.xlsx
+++ b/sources/Guarani_Paraguayan_data.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1101" uniqueCount="599">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="599">
   <si>
     <t>language_no</t>
   </si>
@@ -1985,7 +1985,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" textRotation="90" wrapText="1"/>
@@ -2013,14 +2013,8 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -2310,7 +2304,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S131"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -2506,7 +2502,9 @@
       <c r="J4" s="9" t="s">
         <v>536</v>
       </c>
-      <c r="K4" s="9"/>
+      <c r="K4" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="L4" s="9" t="s">
         <v>586</v>
       </c>
@@ -2547,7 +2545,9 @@
       <c r="J5" s="9" t="s">
         <v>585</v>
       </c>
-      <c r="K5" s="9"/>
+      <c r="K5" s="9" t="s">
+        <v>537</v>
+      </c>
       <c r="L5" s="9" t="s">
         <v>537</v>
       </c>
@@ -2588,7 +2588,9 @@
       <c r="J6" s="9" t="s">
         <v>538</v>
       </c>
-      <c r="K6" s="9"/>
+      <c r="K6" s="9" t="s">
+        <v>8</v>
+      </c>
       <c r="L6" s="9" t="s">
         <v>596</v>
       </c>
@@ -2672,7 +2674,9 @@
       <c r="J8" s="9" t="s">
         <v>539</v>
       </c>
-      <c r="K8" s="9"/>
+      <c r="K8" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="L8" s="9" t="s">
         <v>587</v>
       </c>
@@ -2713,7 +2717,9 @@
       <c r="J9" s="9" t="s">
         <v>585</v>
       </c>
-      <c r="K9" s="9"/>
+      <c r="K9" s="9" t="s">
+        <v>537</v>
+      </c>
       <c r="L9" s="9" t="s">
         <v>537</v>
       </c>
@@ -2756,7 +2762,9 @@
       <c r="J10" s="9" t="s">
         <v>585</v>
       </c>
-      <c r="K10" s="9"/>
+      <c r="K10" s="9" t="s">
+        <v>537</v>
+      </c>
       <c r="L10" s="9" t="s">
         <v>537</v>
       </c>
@@ -2838,7 +2846,9 @@
       <c r="J12" s="9" t="s">
         <v>585</v>
       </c>
-      <c r="K12" s="11"/>
+      <c r="K12" s="9" t="s">
+        <v>537</v>
+      </c>
       <c r="L12" s="9" t="s">
         <v>537</v>
       </c>
@@ -2881,7 +2891,9 @@
       <c r="J13" s="9" t="s">
         <v>593</v>
       </c>
-      <c r="K13" s="9"/>
+      <c r="K13" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="L13" s="9" t="s">
         <v>588</v>
       </c>
@@ -2965,7 +2977,9 @@
       <c r="J15" s="9" t="s">
         <v>536</v>
       </c>
-      <c r="K15" s="9"/>
+      <c r="K15" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="L15" s="9" t="s">
         <v>586</v>
       </c>
@@ -3006,7 +3020,9 @@
       <c r="J16" s="9" t="s">
         <v>585</v>
       </c>
-      <c r="K16" s="9"/>
+      <c r="K16" s="9" t="s">
+        <v>537</v>
+      </c>
       <c r="L16" s="9" t="s">
         <v>537</v>
       </c>
@@ -3135,7 +3151,9 @@
       <c r="J19" s="9" t="s">
         <v>585</v>
       </c>
-      <c r="K19" s="9"/>
+      <c r="K19" s="9" t="s">
+        <v>537</v>
+      </c>
       <c r="L19" s="9" t="s">
         <v>537</v>
       </c>
@@ -3178,7 +3196,9 @@
       <c r="J20" s="9" t="s">
         <v>585</v>
       </c>
-      <c r="K20" s="9"/>
+      <c r="K20" s="9" t="s">
+        <v>537</v>
+      </c>
       <c r="L20" s="9" t="s">
         <v>537</v>
       </c>
@@ -3222,7 +3242,9 @@
       <c r="J21" s="9" t="s">
         <v>585</v>
       </c>
-      <c r="K21" s="9"/>
+      <c r="K21" s="9" t="s">
+        <v>537</v>
+      </c>
       <c r="L21" s="9" t="s">
         <v>537</v>
       </c>
@@ -3263,7 +3285,9 @@
       <c r="J22" s="9" t="s">
         <v>585</v>
       </c>
-      <c r="K22" s="9"/>
+      <c r="K22" s="9" t="s">
+        <v>537</v>
+      </c>
       <c r="L22" s="9" t="s">
         <v>537</v>
       </c>
@@ -3307,7 +3331,9 @@
       <c r="J23" s="9" t="s">
         <v>585</v>
       </c>
-      <c r="K23" s="9"/>
+      <c r="K23" s="9" t="s">
+        <v>537</v>
+      </c>
       <c r="L23" s="9" t="s">
         <v>537</v>
       </c>
@@ -3348,7 +3374,9 @@
       <c r="J24" s="9" t="s">
         <v>540</v>
       </c>
-      <c r="K24" s="9"/>
+      <c r="K24" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="L24" s="9" t="s">
         <v>589</v>
       </c>
@@ -3475,7 +3503,9 @@
       <c r="J27" s="9" t="s">
         <v>585</v>
       </c>
-      <c r="K27" s="9"/>
+      <c r="K27" s="9" t="s">
+        <v>537</v>
+      </c>
       <c r="L27" s="9" t="s">
         <v>537</v>
       </c>
@@ -3561,7 +3591,9 @@
       <c r="J29" s="9" t="s">
         <v>585</v>
       </c>
-      <c r="K29" s="9"/>
+      <c r="K29" s="9" t="s">
+        <v>537</v>
+      </c>
       <c r="L29" s="9" t="s">
         <v>537</v>
       </c>
@@ -3602,7 +3634,9 @@
       <c r="J30" s="9" t="s">
         <v>536</v>
       </c>
-      <c r="K30" s="9"/>
+      <c r="K30" s="9" t="s">
+        <v>8</v>
+      </c>
       <c r="L30" s="9" t="s">
         <v>597</v>
       </c>
@@ -3643,7 +3677,9 @@
       <c r="J31" s="9" t="s">
         <v>539</v>
       </c>
-      <c r="K31" s="9"/>
+      <c r="K31" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="L31" s="9" t="s">
         <v>587</v>
       </c>
@@ -3686,7 +3722,9 @@
       <c r="J32" s="9" t="s">
         <v>585</v>
       </c>
-      <c r="K32" s="9"/>
+      <c r="K32" s="9" t="s">
+        <v>537</v>
+      </c>
       <c r="L32" s="9" t="s">
         <v>537</v>
       </c>
@@ -3768,7 +3806,9 @@
       <c r="J34" s="9" t="s">
         <v>585</v>
       </c>
-      <c r="K34" s="9"/>
+      <c r="K34" s="9" t="s">
+        <v>537</v>
+      </c>
       <c r="L34" s="9" t="s">
         <v>537</v>
       </c>
@@ -3891,7 +3931,9 @@
       <c r="J37" s="9" t="s">
         <v>585</v>
       </c>
-      <c r="K37" s="9"/>
+      <c r="K37" s="9" t="s">
+        <v>537</v>
+      </c>
       <c r="L37" s="9" t="s">
         <v>537</v>
       </c>
@@ -3975,7 +4017,9 @@
       <c r="J39" s="9" t="s">
         <v>585</v>
       </c>
-      <c r="K39" s="9"/>
+      <c r="K39" s="9" t="s">
+        <v>537</v>
+      </c>
       <c r="L39" s="9" t="s">
         <v>537</v>
       </c>
@@ -4018,7 +4062,9 @@
       <c r="J40" s="9" t="s">
         <v>585</v>
       </c>
-      <c r="K40" s="9"/>
+      <c r="K40" s="9" t="s">
+        <v>537</v>
+      </c>
       <c r="L40" s="9" t="s">
         <v>537</v>
       </c>
@@ -4102,7 +4148,9 @@
       <c r="J42" s="9" t="s">
         <v>585</v>
       </c>
-      <c r="K42" s="9"/>
+      <c r="K42" s="9" t="s">
+        <v>537</v>
+      </c>
       <c r="L42" s="9" t="s">
         <v>537</v>
       </c>
@@ -4136,7 +4184,7 @@
       <c r="G43" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="H43" s="12"/>
+      <c r="H43" s="11"/>
       <c r="I43" s="9" t="s">
         <v>583</v>
       </c>
@@ -4177,7 +4225,7 @@
       <c r="G44" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="H44" s="12"/>
+      <c r="H44" s="11"/>
       <c r="I44" s="9" t="s">
         <v>583</v>
       </c>
@@ -4220,14 +4268,16 @@
       <c r="G45" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="H45" s="12"/>
+      <c r="H45" s="11"/>
       <c r="I45" s="9" t="s">
         <v>584</v>
       </c>
       <c r="J45" s="9" t="s">
         <v>585</v>
       </c>
-      <c r="K45" s="9"/>
+      <c r="K45" s="9" t="s">
+        <v>537</v>
+      </c>
       <c r="L45" s="9" t="s">
         <v>537</v>
       </c>
@@ -4263,14 +4313,16 @@
       <c r="G46" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="H46" s="12"/>
+      <c r="H46" s="11"/>
       <c r="I46" s="9" t="s">
         <v>584</v>
       </c>
       <c r="J46" s="9" t="s">
         <v>585</v>
       </c>
-      <c r="K46" s="9"/>
+      <c r="K46" s="9" t="s">
+        <v>537</v>
+      </c>
       <c r="L46" s="9" t="s">
         <v>537</v>
       </c>
@@ -4306,14 +4358,16 @@
       <c r="G47" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="H47" s="12"/>
+      <c r="H47" s="11"/>
       <c r="I47" s="9" t="s">
         <v>584</v>
       </c>
       <c r="J47" s="9" t="s">
         <v>585</v>
       </c>
-      <c r="K47" s="13"/>
+      <c r="K47" s="9" t="s">
+        <v>537</v>
+      </c>
       <c r="L47" s="9" t="s">
         <v>537</v>
       </c>
@@ -4429,7 +4483,7 @@
       <c r="G50" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="H50" s="12"/>
+      <c r="H50" s="11"/>
       <c r="I50" s="9" t="s">
         <v>583</v>
       </c>
@@ -4472,14 +4526,16 @@
       <c r="G51" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="H51" s="12"/>
+      <c r="H51" s="11"/>
       <c r="I51" s="9" t="s">
         <v>584</v>
       </c>
       <c r="J51" s="9" t="s">
         <v>585</v>
       </c>
-      <c r="K51" s="9"/>
+      <c r="K51" s="9" t="s">
+        <v>537</v>
+      </c>
       <c r="L51" s="9" t="s">
         <v>537</v>
       </c>
@@ -4520,7 +4576,9 @@
       <c r="J52" s="9" t="s">
         <v>541</v>
       </c>
-      <c r="K52" s="9"/>
+      <c r="K52" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="L52" s="9" t="s">
         <v>590</v>
       </c>
@@ -4556,14 +4614,16 @@
       <c r="G53" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="H53" s="12"/>
+      <c r="H53" s="11"/>
       <c r="I53" s="9" t="s">
         <v>584</v>
       </c>
       <c r="J53" s="9" t="s">
         <v>585</v>
       </c>
-      <c r="K53" s="9"/>
+      <c r="K53" s="9" t="s">
+        <v>537</v>
+      </c>
       <c r="L53" s="9" t="s">
         <v>537</v>
       </c>
@@ -4597,14 +4657,16 @@
       <c r="G54" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="H54" s="12"/>
+      <c r="H54" s="11"/>
       <c r="I54" s="9" t="s">
         <v>584</v>
       </c>
       <c r="J54" s="9" t="s">
         <v>585</v>
       </c>
-      <c r="K54" s="9"/>
+      <c r="K54" s="9" t="s">
+        <v>537</v>
+      </c>
       <c r="L54" s="9" t="s">
         <v>537</v>
       </c>
@@ -4679,14 +4741,16 @@
       <c r="G56" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="H56" s="12"/>
+      <c r="H56" s="11"/>
       <c r="I56" s="9" t="s">
         <v>584</v>
       </c>
       <c r="J56" s="9" t="s">
         <v>585</v>
       </c>
-      <c r="K56" s="9"/>
+      <c r="K56" s="9" t="s">
+        <v>537</v>
+      </c>
       <c r="L56" s="9" t="s">
         <v>537</v>
       </c>
@@ -4729,7 +4793,9 @@
       <c r="J57" s="9" t="s">
         <v>594</v>
       </c>
-      <c r="K57" s="9"/>
+      <c r="K57" s="9" t="s">
+        <v>8</v>
+      </c>
       <c r="L57" s="9" t="s">
         <v>595</v>
       </c>
@@ -4765,7 +4831,7 @@
       <c r="G58" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="H58" s="12"/>
+      <c r="H58" s="11"/>
       <c r="I58" s="9" t="s">
         <v>583</v>
       </c>
@@ -4806,7 +4872,7 @@
       <c r="G59" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="H59" s="12"/>
+      <c r="H59" s="11"/>
       <c r="I59" s="9" t="s">
         <v>583</v>
       </c>
@@ -4854,7 +4920,9 @@
       <c r="J60" s="9" t="s">
         <v>542</v>
       </c>
-      <c r="K60" s="9"/>
+      <c r="K60" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="L60" s="9" t="s">
         <v>591</v>
       </c>
@@ -4888,7 +4956,7 @@
       <c r="G61" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="H61" s="12"/>
+      <c r="H61" s="11"/>
       <c r="I61" s="9" t="s">
         <v>583</v>
       </c>
@@ -4936,7 +5004,9 @@
       <c r="J62" s="9" t="s">
         <v>538</v>
       </c>
-      <c r="K62" s="9"/>
+      <c r="K62" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="L62" s="9" t="s">
         <v>592</v>
       </c>
@@ -4946,7 +5016,7 @@
       <c r="P62" s="7"/>
       <c r="Q62" s="7"/>
       <c r="R62" s="7"/>
-      <c r="S62" s="14"/>
+      <c r="S62" s="12"/>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A63" s="3">
@@ -4970,14 +5040,16 @@
       <c r="G63" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="H63" s="12"/>
+      <c r="H63" s="11"/>
       <c r="I63" s="9" t="s">
         <v>584</v>
       </c>
       <c r="J63" s="9" t="s">
         <v>585</v>
       </c>
-      <c r="K63" s="9"/>
+      <c r="K63" s="9" t="s">
+        <v>537</v>
+      </c>
       <c r="L63" s="9" t="s">
         <v>537</v>
       </c>
@@ -5013,7 +5085,7 @@
       <c r="G64" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="H64" s="12"/>
+      <c r="H64" s="11"/>
       <c r="I64" s="9" t="s">
         <v>583</v>
       </c>
@@ -5138,7 +5210,7 @@
       <c r="G67" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="H67" s="12"/>
+      <c r="H67" s="11"/>
       <c r="I67" s="9" t="s">
         <v>583</v>
       </c>
@@ -5222,7 +5294,7 @@
       <c r="G69" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="H69" s="12"/>
+      <c r="H69" s="11"/>
       <c r="I69" s="9" t="s">
         <v>583</v>
       </c>
@@ -5265,14 +5337,16 @@
       <c r="G70" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="H70" s="12"/>
+      <c r="H70" s="11"/>
       <c r="I70" s="9" t="s">
         <v>584</v>
       </c>
       <c r="J70" s="9" t="s">
         <v>585</v>
       </c>
-      <c r="K70" s="9"/>
+      <c r="K70" s="9" t="s">
+        <v>537</v>
+      </c>
       <c r="L70" s="9" t="s">
         <v>537</v>
       </c>
@@ -5306,14 +5380,16 @@
       <c r="G71" s="5" t="s">
         <v>297</v>
       </c>
-      <c r="H71" s="12"/>
+      <c r="H71" s="11"/>
       <c r="I71" s="9" t="s">
         <v>584</v>
       </c>
       <c r="J71" s="9" t="s">
         <v>585</v>
       </c>
-      <c r="K71" s="9"/>
+      <c r="K71" s="9" t="s">
+        <v>537</v>
+      </c>
       <c r="L71" s="9" t="s">
         <v>537</v>
       </c>
@@ -5347,14 +5423,16 @@
       <c r="G72" s="5" t="s">
         <v>301</v>
       </c>
-      <c r="H72" s="12"/>
+      <c r="H72" s="11"/>
       <c r="I72" s="9" t="s">
         <v>584</v>
       </c>
       <c r="J72" s="9" t="s">
         <v>585</v>
       </c>
-      <c r="K72" s="9"/>
+      <c r="K72" s="9" t="s">
+        <v>537</v>
+      </c>
       <c r="L72" s="9" t="s">
         <v>537</v>
       </c>
@@ -5390,7 +5468,7 @@
       <c r="G73" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="H73" s="12"/>
+      <c r="H73" s="11"/>
       <c r="I73" s="9" t="s">
         <v>583</v>
       </c>
@@ -5431,7 +5509,7 @@
       <c r="G74" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="H74" s="12"/>
+      <c r="H74" s="11"/>
       <c r="I74" s="9" t="s">
         <v>583</v>
       </c>
@@ -5472,7 +5550,7 @@
       <c r="G75" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="H75" s="12"/>
+      <c r="H75" s="11"/>
       <c r="I75" s="9" t="s">
         <v>583</v>
       </c>
@@ -5515,7 +5593,7 @@
       <c r="G76" s="5" t="s">
         <v>317</v>
       </c>
-      <c r="H76" s="12"/>
+      <c r="H76" s="11"/>
       <c r="I76" s="9" t="s">
         <v>583</v>
       </c>
@@ -5558,14 +5636,16 @@
       <c r="G77" s="5" t="s">
         <v>321</v>
       </c>
-      <c r="H77" s="12"/>
+      <c r="H77" s="11"/>
       <c r="I77" s="9" t="s">
         <v>585</v>
       </c>
       <c r="J77" s="9" t="s">
         <v>539</v>
       </c>
-      <c r="K77" s="9"/>
+      <c r="K77" s="9" t="s">
+        <v>8</v>
+      </c>
       <c r="L77" s="9" t="s">
         <v>598</v>
       </c>
@@ -5599,14 +5679,16 @@
       <c r="G78" s="5" t="s">
         <v>325</v>
       </c>
-      <c r="H78" s="12"/>
+      <c r="H78" s="11"/>
       <c r="I78" s="9" t="s">
         <v>584</v>
       </c>
       <c r="J78" s="9" t="s">
         <v>538</v>
       </c>
-      <c r="K78" s="9"/>
+      <c r="K78" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="L78" s="9" t="s">
         <v>592</v>
       </c>
@@ -5640,14 +5722,16 @@
       <c r="G79" s="5" t="s">
         <v>329</v>
       </c>
-      <c r="H79" s="12"/>
+      <c r="H79" s="11"/>
       <c r="I79" s="9" t="s">
         <v>584</v>
       </c>
       <c r="J79" s="9" t="s">
         <v>585</v>
       </c>
-      <c r="K79" s="9"/>
+      <c r="K79" s="9" t="s">
+        <v>537</v>
+      </c>
       <c r="L79" s="9" t="s">
         <v>537</v>
       </c>
@@ -5683,14 +5767,16 @@
       <c r="G80" s="5" t="s">
         <v>333</v>
       </c>
-      <c r="H80" s="12"/>
+      <c r="H80" s="11"/>
       <c r="I80" s="9" t="s">
         <v>584</v>
       </c>
       <c r="J80" s="9" t="s">
         <v>593</v>
       </c>
-      <c r="K80" s="9"/>
+      <c r="K80" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="L80" s="9" t="s">
         <v>588</v>
       </c>
@@ -5767,7 +5853,7 @@
       <c r="G82" s="5" t="s">
         <v>341</v>
       </c>
-      <c r="H82" s="12"/>
+      <c r="H82" s="11"/>
       <c r="I82" s="9" t="s">
         <v>583</v>
       </c>
@@ -5808,7 +5894,7 @@
       <c r="G83" s="5" t="s">
         <v>345</v>
       </c>
-      <c r="H83" s="12"/>
+      <c r="H83" s="11"/>
       <c r="I83" s="9" t="s">
         <v>583</v>
       </c>
@@ -5849,7 +5935,7 @@
       <c r="G84" s="5" t="s">
         <v>349</v>
       </c>
-      <c r="H84" s="12"/>
+      <c r="H84" s="11"/>
       <c r="I84" s="9" t="s">
         <v>583</v>
       </c>
@@ -5899,7 +5985,9 @@
       <c r="J85" s="9" t="s">
         <v>540</v>
       </c>
-      <c r="K85" s="9"/>
+      <c r="K85" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="L85" s="9" t="s">
         <v>589</v>
       </c>
@@ -5935,7 +6023,7 @@
       <c r="G86" s="5" t="s">
         <v>357</v>
       </c>
-      <c r="H86" s="12"/>
+      <c r="H86" s="11"/>
       <c r="I86" s="9" t="s">
         <v>583</v>
       </c>
@@ -5976,7 +6064,7 @@
       <c r="G87" s="5" t="s">
         <v>361</v>
       </c>
-      <c r="H87" s="12"/>
+      <c r="H87" s="11"/>
       <c r="I87" s="9" t="s">
         <v>583</v>
       </c>
@@ -6017,14 +6105,16 @@
       <c r="G88" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="H88" s="12"/>
+      <c r="H88" s="11"/>
       <c r="I88" s="9" t="s">
         <v>584</v>
       </c>
       <c r="J88" s="9" t="s">
         <v>585</v>
       </c>
-      <c r="K88" s="9"/>
+      <c r="K88" s="9" t="s">
+        <v>537</v>
+      </c>
       <c r="L88" s="9" t="s">
         <v>537</v>
       </c>
@@ -6065,7 +6155,9 @@
       <c r="J89" s="9" t="s">
         <v>585</v>
       </c>
-      <c r="K89" s="11"/>
+      <c r="K89" s="9" t="s">
+        <v>537</v>
+      </c>
       <c r="L89" s="9" t="s">
         <v>537</v>
       </c>
@@ -6101,7 +6193,7 @@
       <c r="G90" s="5" t="s">
         <v>373</v>
       </c>
-      <c r="H90" s="12"/>
+      <c r="H90" s="11"/>
       <c r="I90" s="9" t="s">
         <v>583</v>
       </c>
@@ -6187,14 +6279,16 @@
       <c r="G92" s="5" t="s">
         <v>381</v>
       </c>
-      <c r="H92" s="12"/>
+      <c r="H92" s="11"/>
       <c r="I92" s="9" t="s">
         <v>584</v>
       </c>
       <c r="J92" s="9" t="s">
         <v>585</v>
       </c>
-      <c r="K92" s="9"/>
+      <c r="K92" s="9" t="s">
+        <v>537</v>
+      </c>
       <c r="L92" s="9" t="s">
         <v>537</v>
       </c>
@@ -6228,7 +6322,7 @@
       <c r="G93" s="5" t="s">
         <v>385</v>
       </c>
-      <c r="H93" s="12"/>
+      <c r="H93" s="11"/>
       <c r="I93" s="9" t="s">
         <v>583</v>
       </c>
@@ -6269,14 +6363,16 @@
       <c r="G94" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="H94" s="12"/>
+      <c r="H94" s="11"/>
       <c r="I94" s="9" t="s">
         <v>584</v>
       </c>
       <c r="J94" s="9" t="s">
         <v>585</v>
       </c>
-      <c r="K94" s="9"/>
+      <c r="K94" s="9" t="s">
+        <v>537</v>
+      </c>
       <c r="L94" s="9" t="s">
         <v>537</v>
       </c>
@@ -6358,7 +6454,9 @@
       <c r="J96" s="9" t="s">
         <v>542</v>
       </c>
-      <c r="K96" s="9"/>
+      <c r="K96" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="L96" s="9" t="s">
         <v>591</v>
       </c>
@@ -6392,14 +6490,16 @@
       <c r="G97" s="5" t="s">
         <v>401</v>
       </c>
-      <c r="H97" s="12"/>
+      <c r="H97" s="11"/>
       <c r="I97" s="9" t="s">
         <v>584</v>
       </c>
       <c r="J97" s="9" t="s">
         <v>585</v>
       </c>
-      <c r="K97" s="13"/>
+      <c r="K97" s="9" t="s">
+        <v>537</v>
+      </c>
       <c r="L97" s="9" t="s">
         <v>537</v>
       </c>
@@ -6476,14 +6576,16 @@
       <c r="G99" s="5" t="s">
         <v>409</v>
       </c>
-      <c r="H99" s="12"/>
+      <c r="H99" s="11"/>
       <c r="I99" s="9" t="s">
         <v>584</v>
       </c>
       <c r="J99" s="9" t="s">
         <v>538</v>
       </c>
-      <c r="K99" s="9"/>
+      <c r="K99" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="L99" s="9" t="s">
         <v>592</v>
       </c>
@@ -6526,7 +6628,9 @@
       <c r="J100" s="9" t="s">
         <v>540</v>
       </c>
-      <c r="K100" s="9"/>
+      <c r="K100" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="L100" s="9" t="s">
         <v>589</v>
       </c>
@@ -6562,7 +6666,7 @@
       <c r="G101" s="5" t="s">
         <v>417</v>
       </c>
-      <c r="H101" s="12"/>
+      <c r="H101" s="11"/>
       <c r="I101" s="9" t="s">
         <v>583</v>
       </c>
@@ -6603,15 +6707,17 @@
       <c r="G102" s="5" t="s">
         <v>421</v>
       </c>
-      <c r="H102" s="12"/>
+      <c r="H102" s="11"/>
       <c r="I102" s="9" t="s">
         <v>584</v>
       </c>
-      <c r="J102" s="15" t="s">
+      <c r="J102" s="13" t="s">
         <v>542</v>
       </c>
-      <c r="K102" s="15"/>
-      <c r="L102" s="15" t="s">
+      <c r="K102" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="L102" s="13" t="s">
         <v>591</v>
       </c>
       <c r="M102" s="5"/>
@@ -6644,7 +6750,7 @@
       <c r="G103" s="5" t="s">
         <v>425</v>
       </c>
-      <c r="H103" s="12"/>
+      <c r="H103" s="11"/>
       <c r="I103" s="9" t="s">
         <v>583</v>
       </c>
@@ -6685,7 +6791,7 @@
       <c r="G104" s="5" t="s">
         <v>428</v>
       </c>
-      <c r="H104" s="12"/>
+      <c r="H104" s="11"/>
       <c r="I104" s="9" t="s">
         <v>583</v>
       </c>
@@ -6726,7 +6832,7 @@
       <c r="G105" s="5" t="s">
         <v>432</v>
       </c>
-      <c r="H105" s="12"/>
+      <c r="H105" s="11"/>
       <c r="I105" s="9" t="s">
         <v>583</v>
       </c>
@@ -6767,7 +6873,7 @@
       <c r="G106" s="5" t="s">
         <v>436</v>
       </c>
-      <c r="H106" s="12"/>
+      <c r="H106" s="11"/>
       <c r="I106" s="9" t="s">
         <v>583</v>
       </c>
@@ -6808,7 +6914,7 @@
       <c r="G107" s="5" t="s">
         <v>439</v>
       </c>
-      <c r="H107" s="12"/>
+      <c r="H107" s="11"/>
       <c r="I107" s="9" t="s">
         <v>583</v>
       </c>
@@ -6851,14 +6957,16 @@
       <c r="G108" s="5" t="s">
         <v>443</v>
       </c>
-      <c r="H108" s="12"/>
+      <c r="H108" s="11"/>
       <c r="I108" s="9" t="s">
         <v>584</v>
       </c>
       <c r="J108" s="9" t="s">
         <v>585</v>
       </c>
-      <c r="K108" s="9"/>
+      <c r="K108" s="9" t="s">
+        <v>537</v>
+      </c>
       <c r="L108" s="9" t="s">
         <v>537</v>
       </c>
@@ -6892,14 +7000,16 @@
       <c r="G109" s="5" t="s">
         <v>447</v>
       </c>
-      <c r="H109" s="12"/>
+      <c r="H109" s="11"/>
       <c r="I109" s="9" t="s">
         <v>584</v>
       </c>
       <c r="J109" s="9" t="s">
         <v>585</v>
       </c>
-      <c r="K109" s="9"/>
+      <c r="K109" s="9" t="s">
+        <v>537</v>
+      </c>
       <c r="L109" s="9" t="s">
         <v>537</v>
       </c>
@@ -6935,7 +7045,7 @@
       <c r="G110" s="5" t="s">
         <v>451</v>
       </c>
-      <c r="H110" s="12"/>
+      <c r="H110" s="11"/>
       <c r="I110" s="9" t="s">
         <v>583</v>
       </c>
@@ -6976,7 +7086,7 @@
       <c r="G111" s="5" t="s">
         <v>455</v>
       </c>
-      <c r="H111" s="12"/>
+      <c r="H111" s="11"/>
       <c r="I111" s="9" t="s">
         <v>583</v>
       </c>
@@ -7099,7 +7209,7 @@
       <c r="G114" s="5" t="s">
         <v>467</v>
       </c>
-      <c r="H114" s="12"/>
+      <c r="H114" s="11"/>
       <c r="I114" s="9" t="s">
         <v>583</v>
       </c>
@@ -7140,7 +7250,7 @@
       <c r="G115" s="5" t="s">
         <v>471</v>
       </c>
-      <c r="H115" s="12"/>
+      <c r="H115" s="11"/>
       <c r="I115" s="9" t="s">
         <v>583</v>
       </c>
@@ -7181,7 +7291,7 @@
       <c r="G116" s="5" t="s">
         <v>475</v>
       </c>
-      <c r="H116" s="12"/>
+      <c r="H116" s="11"/>
       <c r="I116" s="9" t="s">
         <v>583</v>
       </c>
@@ -7222,7 +7332,7 @@
       <c r="G117" s="5" t="s">
         <v>479</v>
       </c>
-      <c r="H117" s="12"/>
+      <c r="H117" s="11"/>
       <c r="I117" s="9" t="s">
         <v>583</v>
       </c>
@@ -7304,7 +7414,7 @@
       <c r="G119" s="5" t="s">
         <v>487</v>
       </c>
-      <c r="H119" s="12"/>
+      <c r="H119" s="11"/>
       <c r="I119" s="9" t="s">
         <v>583</v>
       </c>
@@ -7345,7 +7455,7 @@
       <c r="G120" s="6" t="s">
         <v>490</v>
       </c>
-      <c r="H120" s="12"/>
+      <c r="H120" s="11"/>
       <c r="I120" s="9" t="s">
         <v>583</v>
       </c>
@@ -7427,7 +7537,7 @@
       <c r="G122" s="5" t="s">
         <v>498</v>
       </c>
-      <c r="H122" s="12"/>
+      <c r="H122" s="11"/>
       <c r="I122" s="9" t="s">
         <v>583</v>
       </c>
@@ -7550,7 +7660,7 @@
       <c r="G125" s="5" t="s">
         <v>510</v>
       </c>
-      <c r="H125" s="12"/>
+      <c r="H125" s="11"/>
       <c r="I125" s="9" t="s">
         <v>583</v>
       </c>
@@ -7591,7 +7701,7 @@
       <c r="G126" s="5" t="s">
         <v>514</v>
       </c>
-      <c r="H126" s="12"/>
+      <c r="H126" s="11"/>
       <c r="I126" s="9" t="s">
         <v>583</v>
       </c>
@@ -7632,7 +7742,7 @@
       <c r="G127" s="5" t="s">
         <v>518</v>
       </c>
-      <c r="H127" s="12"/>
+      <c r="H127" s="11"/>
       <c r="I127" s="9" t="s">
         <v>583</v>
       </c>
@@ -7755,7 +7865,7 @@
       <c r="G130" s="5" t="s">
         <v>530</v>
       </c>
-      <c r="H130" s="12"/>
+      <c r="H130" s="11"/>
       <c r="I130" s="9" t="s">
         <v>583</v>
       </c>
@@ -7796,7 +7906,7 @@
       <c r="G131" s="5" t="s">
         <v>534</v>
       </c>
-      <c r="H131" s="12"/>
+      <c r="H131" s="11"/>
       <c r="I131" s="9" t="s">
         <v>583</v>
       </c>
